--- a/results/mp/tinybert/corona/confidence/84/topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,15 +49,6 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -76,9 +64,6 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -88,97 +73,121 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>to</t>
@@ -187,7 +196,16 @@
     <t>a</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>the</t>
@@ -548,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.6335616438356164</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7402597402597403</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>402</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5416666666666666</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4285714285714285</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3605150214592275</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C10">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,45 +1027,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>59</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1063,217 +1057,121 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2125</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>63</v>
-      </c>
       <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="L12">
+        <v>91</v>
+      </c>
+      <c r="M12">
+        <v>91</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.7578125</v>
+      </c>
+      <c r="L13">
+        <v>97</v>
+      </c>
+      <c r="M13">
+        <v>97</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>31</v>
       </c>
-      <c r="K12">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L12">
-        <v>44</v>
-      </c>
-      <c r="M12">
-        <v>44</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>0.7413793103448276</v>
+      </c>
+      <c r="L14">
+        <v>43</v>
+      </c>
+      <c r="M14">
+        <v>43</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L15">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>114</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L13">
-        <v>41</v>
-      </c>
-      <c r="M13">
-        <v>41</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>99</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L14">
-        <v>45</v>
-      </c>
-      <c r="M14">
-        <v>45</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.05913978494623656</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>175</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15">
-        <v>0.75</v>
-      </c>
-      <c r="L15">
-        <v>18</v>
-      </c>
-      <c r="M15">
-        <v>18</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1285,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.72</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1311,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.7125</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1337,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6712328767123288</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1363,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1389,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6470588235294118</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1415,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1441,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1467,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5757575757575758</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1493,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5539906103286385</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L25">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1519,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5069444444444444</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L26">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="M26">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1545,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>71</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1571,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4961240310077519</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1597,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>65</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4021739130434783</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1623,47 +1521,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>55</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>0.3717948717948718</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>49</v>
-      </c>
-      <c r="K30">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="L30">
-        <v>12</v>
-      </c>
-      <c r="M30">
-        <v>12</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.3243243243243243</v>
+        <v>0.3472803347280335</v>
       </c>
       <c r="L31">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="M31">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1675,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.2894736842105263</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1701,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.03728070175438596</v>
+        <v>0.296875</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1727,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>439</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.03658536585365853</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1753,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.03286384976525822</v>
+        <v>0.03551609322974473</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1779,47 +1677,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>412</v>
+        <v>869</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.01090074584050488</v>
+        <v>0.0347985347985348</v>
       </c>
       <c r="L36">
         <v>19</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N36">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1724</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.01064962726304579</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1831,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>929</v>
+        <v>864</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.009916492693110648</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1857,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1897</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.005533199195171026</v>
+        <v>0.02330293819655522</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>0.92</v>
@@ -1883,7 +1781,293 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1977</v>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.01884473576403113</v>
+      </c>
+      <c r="L40">
+        <v>46</v>
+      </c>
+      <c r="M40">
+        <v>50</v>
+      </c>
+      <c r="N40">
+        <v>0.92</v>
+      </c>
+      <c r="O40">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.01756587202007528</v>
+      </c>
+      <c r="L41">
+        <v>28</v>
+      </c>
+      <c r="M41">
+        <v>28</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>0.01631701631701632</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>0.91</v>
+      </c>
+      <c r="O42">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.0157244477723699</v>
+      </c>
+      <c r="L43">
+        <v>42</v>
+      </c>
+      <c r="M43">
+        <v>44</v>
+      </c>
+      <c r="N43">
+        <v>0.95</v>
+      </c>
+      <c r="O43">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44">
+        <v>0.01132947976878613</v>
+      </c>
+      <c r="L44">
+        <v>49</v>
+      </c>
+      <c r="M44">
+        <v>52</v>
+      </c>
+      <c r="N44">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45">
+        <v>0.01127004768097096</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <v>28</v>
+      </c>
+      <c r="N45">
+        <v>0.93</v>
+      </c>
+      <c r="O45">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46">
+        <v>0.009676062263357174</v>
+      </c>
+      <c r="L46">
+        <v>23</v>
+      </c>
+      <c r="M46">
+        <v>25</v>
+      </c>
+      <c r="N46">
+        <v>0.92</v>
+      </c>
+      <c r="O46">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47">
+        <v>0.009617311160088158</v>
+      </c>
+      <c r="L47">
+        <v>48</v>
+      </c>
+      <c r="M47">
+        <v>53</v>
+      </c>
+      <c r="N47">
+        <v>0.91</v>
+      </c>
+      <c r="O47">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48">
+        <v>0.009341429238673517</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>22</v>
+      </c>
+      <c r="N48">
+        <v>0.91</v>
+      </c>
+      <c r="O48">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49">
+        <v>0.009017713365539453</v>
+      </c>
+      <c r="L49">
+        <v>28</v>
+      </c>
+      <c r="M49">
+        <v>30</v>
+      </c>
+      <c r="N49">
+        <v>0.93</v>
+      </c>
+      <c r="O49">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50">
+        <v>0.008137957760124007</v>
+      </c>
+      <c r="L50">
+        <v>42</v>
+      </c>
+      <c r="M50">
+        <v>46</v>
+      </c>
+      <c r="N50">
+        <v>0.91</v>
+      </c>
+      <c r="O50">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>5119</v>
       </c>
     </row>
   </sheetData>
